--- a/biology/Botanique/Cynorkis/Cynorkis.xlsx
+++ b/biology/Botanique/Cynorkis/Cynorkis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynorkis est un genre d'Orchidées.
 L'espèce type est Cynorkis fastigiata Thouars (1822).
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Amphorkis Thouars, Nouv. Bull. Sci. Soc. Philom. Paris 1: 316 (1809)
 Cynorchis Thouars, Hist. Orchid.: t. 13 (1822), orth. var.
@@ -559,9 +573,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (22 décembre 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (22 décembre 2018) :
 Cynorkis alborubra Schltr.
 Cynorkis ambondrombensis Boiteau
 Cynorkis ampullacea H.Perrier ex Hermans
@@ -723,12 +739,12 @@
 Cynorkis violacea Schltr.
 Cynorkis volombato Bosser
 Cynorkis zaratananae Schltr.
-Selon NCBI  (22 décembre 2018)[3] :
+Selon NCBI  (22 décembre 2018) :
 Cynorkis compacta
 Cynorkis fastigiata
 Cynorkis galeata
 Cynorkis grandiflora
-Selon The Plant List            (22 décembre 2018)[4] :
+Selon The Plant List            (22 décembre 2018) :
 Cynorkis alborubra Schltr.
 Cynorkis ambondrombensis Boiteau
 Cynorkis ampullacea H.Perrier ex Hermans
@@ -887,7 +903,7 @@
 Cynorkis villosa Rolfe
 Cynorkis violacea Schltr.
 Cynorkis zaratananae Schltr.
-Selon Tropicos                                           (22 décembre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (22 décembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Cynorkis alborubra Schltr.
 Cynorkis amabilis Schltr.
 Cynorkis ambondrombensis Boiteau
